--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,7 +741,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -763,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +948,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,29 +968,32 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,46 +1046,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>1300</v>
-      </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,37 +1097,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1300</v>
-      </c>
       <c r="I18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1133,11 +1167,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1150,8 +1184,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,37 +1196,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,17 +1245,17 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
@@ -1226,46 +1266,52 @@
       <c r="N22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-900</v>
       </c>
       <c r="N23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1285,25 +1331,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-900</v>
       </c>
       <c r="N26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-900</v>
       </c>
       <c r="N27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1589,11 +1659,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1606,46 +1676,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-900</v>
       </c>
       <c r="N33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-900</v>
       </c>
       <c r="N35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,69 +1881,73 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
-        <v>5000</v>
-      </c>
       <c r="F41" s="3">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>5500</v>
       </c>
       <c r="H41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1871,13 +1961,16 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1889,7 +1982,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1898,19 +1991,22 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2043,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,80 +2055,86 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
-        <v>5100</v>
-      </c>
       <c r="F46" s="3">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="G46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
-        <v>2400</v>
-      </c>
       <c r="I46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2046,8 +2151,8 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
@@ -2061,46 +2166,52 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38400</v>
+        <v>38300</v>
       </c>
       <c r="E48" s="3">
-        <v>37400</v>
+        <v>37800</v>
       </c>
       <c r="F48" s="3">
-        <v>37100</v>
+        <v>36800</v>
       </c>
       <c r="G48" s="3">
-        <v>38800</v>
+        <v>36500</v>
       </c>
       <c r="H48" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="I48" s="3">
-        <v>37100</v>
+        <v>36500</v>
       </c>
       <c r="J48" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K48" s="3">
         <v>33300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,13 +2330,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2236,8 +2356,8 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42700</v>
+        <v>41900</v>
       </c>
       <c r="E54" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="F54" s="3">
-        <v>42800</v>
+        <v>41800</v>
       </c>
       <c r="G54" s="3">
-        <v>40300</v>
+        <v>42200</v>
       </c>
       <c r="H54" s="3">
-        <v>39400</v>
+        <v>39700</v>
       </c>
       <c r="I54" s="3">
-        <v>40200</v>
+        <v>38900</v>
       </c>
       <c r="J54" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2489,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2386,10 +2517,10 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
@@ -2397,8 +2528,11 @@
       <c r="N57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2423,20 +2557,23 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>7700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2473,8 +2610,11 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2482,7 +2622,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2500,19 +2640,22 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2544,13 +2687,16 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2558,7 +2704,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2573,10 +2719,10 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,8 +2856,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2710,7 +2868,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2722,25 +2880,28 @@
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52400</v>
+        <v>-35200</v>
       </c>
       <c r="E72" s="3">
-        <v>-52900</v>
+        <v>-51700</v>
       </c>
       <c r="F72" s="3">
-        <v>-52400</v>
+        <v>-52100</v>
       </c>
       <c r="G72" s="3">
-        <v>-49800</v>
+        <v>-51700</v>
       </c>
       <c r="H72" s="3">
-        <v>-50700</v>
+        <v>-49100</v>
       </c>
       <c r="I72" s="3">
-        <v>-49800</v>
+        <v>-50000</v>
       </c>
       <c r="J72" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-49900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="E76" s="3">
-        <v>42100</v>
+        <v>42000</v>
       </c>
       <c r="F76" s="3">
-        <v>42400</v>
+        <v>41500</v>
       </c>
       <c r="G76" s="3">
-        <v>40000</v>
+        <v>41800</v>
       </c>
       <c r="H76" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J76" s="3">
         <v>39100</v>
       </c>
-      <c r="I76" s="3">
-        <v>39700</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-900</v>
       </c>
       <c r="N81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3526,14 +3747,14 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -3544,16 +3765,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>500</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>500</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,8 +4077,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3843,37 +4089,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>5100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,8 +4159,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3922,30 +4174,33 @@
         <v>-700</v>
       </c>
       <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
         <v>4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
-        <v>2000</v>
-      </c>
       <c r="J102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
-        <v>700</v>
-      </c>
       <c r="F17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="J17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>-600</v>
@@ -1097,22 +1097,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="J18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K18" s="3">
         <v>600</v>
@@ -1199,19 +1199,19 @@
         <v>-700</v>
       </c>
       <c r="F21" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H21" s="3">
         <v>-800</v>
       </c>
       <c r="I21" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J21" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
@@ -1281,19 +1281,19 @@
         <v>-700</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H23" s="3">
         <v>-800</v>
       </c>
       <c r="I23" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1404,16 +1404,16 @@
         <v>-700</v>
       </c>
       <c r="F26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H26" s="3">
         <v>-800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
@@ -1445,16 +1445,16 @@
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
-      </c>
       <c r="I27" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J27" s="3">
         <v>-600</v>
@@ -1691,16 +1691,16 @@
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
-      </c>
       <c r="I33" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J33" s="3">
         <v>-600</v>
@@ -1773,16 +1773,16 @@
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
-      </c>
       <c r="I35" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J35" s="3">
         <v>-600</v>
@@ -1888,25 +1888,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E41" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="F41" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G41" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H41" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="I41" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="J41" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="K41" s="3">
         <v>1100</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2093,25 +2093,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="E46" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="F46" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="G46" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="H46" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I46" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="J46" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
@@ -2175,25 +2175,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38300</v>
+        <v>41800</v>
       </c>
       <c r="E48" s="3">
-        <v>37800</v>
+        <v>41200</v>
       </c>
       <c r="F48" s="3">
-        <v>36800</v>
+        <v>40100</v>
       </c>
       <c r="G48" s="3">
-        <v>36500</v>
+        <v>39800</v>
       </c>
       <c r="H48" s="3">
-        <v>38300</v>
+        <v>41700</v>
       </c>
       <c r="I48" s="3">
-        <v>36500</v>
+        <v>39800</v>
       </c>
       <c r="J48" s="3">
-        <v>36500</v>
+        <v>39800</v>
       </c>
       <c r="K48" s="3">
         <v>33300</v>
@@ -2421,25 +2421,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41900</v>
+        <v>45600</v>
       </c>
       <c r="E54" s="3">
-        <v>42100</v>
+        <v>45900</v>
       </c>
       <c r="F54" s="3">
-        <v>41800</v>
+        <v>45600</v>
       </c>
       <c r="G54" s="3">
-        <v>42200</v>
+        <v>46000</v>
       </c>
       <c r="H54" s="3">
-        <v>39700</v>
+        <v>43300</v>
       </c>
       <c r="I54" s="3">
-        <v>38900</v>
+        <v>42400</v>
       </c>
       <c r="J54" s="3">
-        <v>39600</v>
+        <v>43200</v>
       </c>
       <c r="K54" s="3">
         <v>34500</v>
@@ -2622,7 +2622,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2707,7 +2707,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2874,7 +2874,7 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -2883,7 +2883,7 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -3087,25 +3087,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35200</v>
+        <v>-38300</v>
       </c>
       <c r="E72" s="3">
-        <v>-51700</v>
+        <v>-56300</v>
       </c>
       <c r="F72" s="3">
-        <v>-52100</v>
+        <v>-56800</v>
       </c>
       <c r="G72" s="3">
-        <v>-51700</v>
+        <v>-56300</v>
       </c>
       <c r="H72" s="3">
-        <v>-49100</v>
+        <v>-53500</v>
       </c>
       <c r="I72" s="3">
-        <v>-50000</v>
+        <v>-54500</v>
       </c>
       <c r="J72" s="3">
-        <v>-49100</v>
+        <v>-53500</v>
       </c>
       <c r="K72" s="3">
         <v>-53200</v>
@@ -3251,25 +3251,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41700</v>
+        <v>45500</v>
       </c>
       <c r="E76" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>43000</v>
+      </c>
+      <c r="I76" s="3">
         <v>42000</v>
       </c>
-      <c r="F76" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>41800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>39400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>38600</v>
-      </c>
       <c r="J76" s="3">
-        <v>39100</v>
+        <v>42600</v>
       </c>
       <c r="K76" s="3">
         <v>34100</v>
@@ -3385,16 +3385,16 @@
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
-      </c>
       <c r="I81" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J81" s="3">
         <v>-600</v>
@@ -3686,10 +3686,10 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
@@ -3698,7 +3698,7 @@
         <v>-500</v>
       </c>
       <c r="I89" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-500</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -4095,16 +4095,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K100" s="3">
         <v>2000</v>
@@ -4171,22 +4171,22 @@
         <v>-700</v>
       </c>
       <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
-        <v>-600</v>
-      </c>
       <c r="G102" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="H102" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J102" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="K102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,76 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,7 +748,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -770,8 +774,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +862,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,13 +968,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -971,29 +991,32 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1056,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,8 +1073,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1056,40 +1083,43 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1097,40 +1127,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-800</v>
-      </c>
       <c r="I18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1179,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1170,11 +1204,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1187,8 +1221,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,40 +1233,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1248,17 +1288,17 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
@@ -1269,49 +1309,55 @@
       <c r="O22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-900</v>
       </c>
       <c r="O23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1334,25 +1380,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,49 +1441,55 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-800</v>
-      </c>
       <c r="I26" s="3">
-        <v>-1300</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-900</v>
       </c>
       <c r="O26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1442,40 +1497,43 @@
         <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-900</v>
       </c>
       <c r="O27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1705,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1662,11 +1732,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1679,8 +1749,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1688,40 +1761,43 @@
         <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-900</v>
       </c>
       <c r="O33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,8 +1837,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1770,86 +1849,92 @@
         <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-900</v>
       </c>
       <c r="O35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,63 +1968,67 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>4500</v>
+        <v>3900</v>
       </c>
       <c r="F41" s="3">
-        <v>5300</v>
+        <v>4600</v>
       </c>
       <c r="G41" s="3">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>2600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -1949,8 +2039,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1964,8 +2054,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1985,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1994,19 +2087,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,8 +2142,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2058,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2079,71 +2178,77 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="E46" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="F46" s="3">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="G46" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="H46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2154,8 +2259,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2169,49 +2274,55 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41800</v>
+        <v>35500</v>
       </c>
       <c r="E48" s="3">
-        <v>41200</v>
+        <v>42700</v>
       </c>
       <c r="F48" s="3">
-        <v>40100</v>
+        <v>42100</v>
       </c>
       <c r="G48" s="3">
+        <v>41000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>40700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K48" s="3">
         <v>39800</v>
       </c>
-      <c r="H48" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,22 +2450,25 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2359,8 +2479,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>46900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>46600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>46900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>43200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="M54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>44800</v>
+      </c>
+      <c r="O54" s="3">
+        <v>46900</v>
+      </c>
+      <c r="P54" s="3">
         <v>45600</v>
       </c>
-      <c r="E54" s="3">
-        <v>45900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>45600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>46000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>43300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>42400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>43200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>34500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>36300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>44800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>46900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>45600</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,8 +2620,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2520,10 +2651,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -2531,54 +2662,60 @@
       <c r="O57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>7700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2613,8 +2750,11 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2643,19 +2783,22 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2690,13 +2833,16 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2707,25 +2853,25 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>300</v>
-      </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -2736,8 +2882,11 @@
       <c r="O62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38300</v>
+        <v>-40100</v>
       </c>
       <c r="E72" s="3">
-        <v>-56300</v>
+        <v>-39100</v>
       </c>
       <c r="F72" s="3">
-        <v>-56800</v>
+        <v>-38600</v>
       </c>
       <c r="G72" s="3">
-        <v>-56300</v>
+        <v>-38000</v>
       </c>
       <c r="H72" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-54700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-55700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53500</v>
       </c>
-      <c r="I72" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-53500</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45500</v>
+        <v>38200</v>
       </c>
       <c r="E76" s="3">
-        <v>45800</v>
+        <v>46500</v>
       </c>
       <c r="F76" s="3">
-        <v>45300</v>
+        <v>46700</v>
       </c>
       <c r="G76" s="3">
-        <v>45600</v>
+        <v>46200</v>
       </c>
       <c r="H76" s="3">
-        <v>43000</v>
+        <v>46600</v>
       </c>
       <c r="I76" s="3">
-        <v>42000</v>
+        <v>43900</v>
       </c>
       <c r="J76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K76" s="3">
         <v>42600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,54 +3516,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3382,40 +3577,43 @@
         <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-900</v>
       </c>
       <c r="O81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
       </c>
       <c r="H89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3955,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3750,14 +3971,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -3768,16 +3989,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4085,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3867,7 +4097,7 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
@@ -3876,31 +4106,34 @@
         <v>-300</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="I94" s="3">
         <v>-500</v>
       </c>
       <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,8 +4323,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4092,37 +4338,40 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>5400</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4411,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
-        <v>4600</v>
-      </c>
       <c r="H102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -751,7 +755,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -777,8 +781,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,8 +828,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +875,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,16 +988,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -994,29 +1014,32 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,8 +1100,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1086,40 +1113,43 @@
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1127,43 +1157,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,8 +1213,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1207,11 +1241,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1224,57 +1258,63 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-700</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H21" s="3">
         <v>-1000</v>
       </c>
       <c r="I21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-500</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1291,17 +1331,17 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
@@ -1312,52 +1352,58 @@
       <c r="P22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
       </c>
       <c r="P23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1383,25 +1429,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,52 +1493,58 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
       </c>
       <c r="P26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1497,43 +1552,46 @@
         <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,8 +1775,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1735,11 +1805,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1752,8 +1822,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1761,43 +1834,46 @@
         <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,8 +1916,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1849,92 +1928,98 @@
         <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,69 +2055,73 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
-        <v>3900</v>
-      </c>
       <c r="F41" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="G41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
-        <v>6100</v>
-      </c>
       <c r="I41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2042,8 +2132,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2057,8 +2147,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2081,7 +2174,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2090,19 +2183,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,8 +2241,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2181,68 +2280,74 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2250,8 +2355,8 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2262,8 +2367,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2277,52 +2382,58 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35500</v>
+        <v>38600</v>
       </c>
       <c r="E48" s="3">
-        <v>42700</v>
+        <v>36400</v>
       </c>
       <c r="F48" s="3">
+        <v>43800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="H48" s="3">
         <v>42100</v>
       </c>
-      <c r="G48" s="3">
-        <v>41000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>40700</v>
-      </c>
       <c r="I48" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="J48" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K48" s="3">
         <v>40600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2476,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,16 +2570,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2470,8 +2590,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2602,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2497,8 +2617,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38600</v>
+        <v>41000</v>
       </c>
       <c r="E54" s="3">
-        <v>46600</v>
+        <v>39600</v>
       </c>
       <c r="F54" s="3">
+        <v>47800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>48100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>47800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>43300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>43200</v>
+      </c>
+      <c r="M54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="N54" s="3">
+        <v>36300</v>
+      </c>
+      <c r="O54" s="3">
+        <v>44800</v>
+      </c>
+      <c r="P54" s="3">
         <v>46900</v>
       </c>
-      <c r="G54" s="3">
-        <v>46600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>46900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>44200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>43300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>43200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>34500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>36300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>44800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>46900</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,13 +2751,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2654,10 +2785,10 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
@@ -2665,16 +2796,19 @@
       <c r="P57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -2691,26 +2825,29 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>7700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2753,13 +2890,16 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2786,19 +2926,22 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,13 +2979,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2856,7 +3002,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -2865,16 +3011,16 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -2885,8 +3031,11 @@
       <c r="P62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,22 +3172,25 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3041,28 +3199,31 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40100</v>
+        <v>-41600</v>
       </c>
       <c r="E72" s="3">
-        <v>-39100</v>
+        <v>-41100</v>
       </c>
       <c r="F72" s="3">
-        <v>-38600</v>
+        <v>-40200</v>
       </c>
       <c r="G72" s="3">
-        <v>-38000</v>
+        <v>-39600</v>
       </c>
       <c r="H72" s="3">
-        <v>-57500</v>
+        <v>-39000</v>
       </c>
       <c r="I72" s="3">
-        <v>-54700</v>
+        <v>-59100</v>
       </c>
       <c r="J72" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-55700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>47700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>47400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>47800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>42600</v>
+      </c>
+      <c r="M76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>35100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>36900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>39300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>38200</v>
       </c>
-      <c r="E76" s="3">
-        <v>46500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>46700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>46200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>46600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>43900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>42900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>42600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>34100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>35100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>36900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>39300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>38200</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,57 +3708,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3577,43 +3772,46 @@
         <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +3828,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,22 +4108,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-600</v>
@@ -3918,28 +4135,31 @@
         <v>-600</v>
       </c>
       <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4176,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,14 +4195,14 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -3992,16 +4213,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,19 +4315,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
@@ -4109,31 +4339,34 @@
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
       </c>
       <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,8 +4569,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4341,37 +4587,40 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>5500</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4414,48 +4663,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-700</v>
       </c>
       <c r="F102" s="3">
         <v>-800</v>
       </c>
       <c r="G102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
-        <v>4700</v>
-      </c>
       <c r="I102" s="3">
-        <v>-1000</v>
+        <v>4800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1160,10 +1160,10 @@
         <v>-900</v>
       </c>
       <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-900</v>
@@ -1558,10 +1558,10 @@
         <v>-900</v>
       </c>
       <c r="G27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
@@ -1840,10 +1840,10 @@
         <v>-900</v>
       </c>
       <c r="G33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
@@ -1934,10 +1934,10 @@
         <v>-900</v>
       </c>
       <c r="G35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
@@ -2068,19 +2068,19 @@
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G41" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
       </c>
       <c r="I41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K41" s="3">
         <v>2500</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2300,19 +2300,19 @@
         <v>2400</v>
       </c>
       <c r="E46" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F46" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G46" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H46" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="I46" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J46" s="3">
         <v>1700</v>
@@ -2391,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="E48" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="F48" s="3">
-        <v>43800</v>
+        <v>44800</v>
       </c>
       <c r="G48" s="3">
-        <v>43200</v>
+        <v>44200</v>
       </c>
       <c r="H48" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="I48" s="3">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="J48" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="K48" s="3">
         <v>40600</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41000</v>
+        <v>41900</v>
       </c>
       <c r="E54" s="3">
-        <v>39600</v>
+        <v>40500</v>
       </c>
       <c r="F54" s="3">
-        <v>47800</v>
+        <v>48900</v>
       </c>
       <c r="G54" s="3">
-        <v>48100</v>
+        <v>49200</v>
       </c>
       <c r="H54" s="3">
-        <v>47800</v>
+        <v>48900</v>
       </c>
       <c r="I54" s="3">
-        <v>48200</v>
+        <v>49300</v>
       </c>
       <c r="J54" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="K54" s="3">
         <v>43300</v>
@@ -2770,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2917,7 +2917,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3187,7 +3187,7 @@
         <v>500</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41600</v>
+        <v>-42600</v>
       </c>
       <c r="E72" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41100</v>
       </c>
-      <c r="F72" s="3">
-        <v>-40200</v>
-      </c>
       <c r="G72" s="3">
-        <v>-39600</v>
+        <v>-40500</v>
       </c>
       <c r="H72" s="3">
-        <v>-39000</v>
+        <v>-39900</v>
       </c>
       <c r="I72" s="3">
-        <v>-59100</v>
+        <v>-60400</v>
       </c>
       <c r="J72" s="3">
-        <v>-56100</v>
+        <v>-57400</v>
       </c>
       <c r="K72" s="3">
         <v>-55700</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40500</v>
+        <v>41400</v>
       </c>
       <c r="E76" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="F76" s="3">
-        <v>47700</v>
+        <v>48800</v>
       </c>
       <c r="G76" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="H76" s="3">
-        <v>47400</v>
+        <v>48500</v>
       </c>
       <c r="I76" s="3">
-        <v>47800</v>
+        <v>48900</v>
       </c>
       <c r="J76" s="3">
-        <v>45000</v>
+        <v>46100</v>
       </c>
       <c r="K76" s="3">
         <v>42900</v>
@@ -3778,10 +3778,10 @@
         <v>-900</v>
       </c>
       <c r="G81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
@@ -4123,7 +4123,7 @@
         <v>-600</v>
       </c>
       <c r="F89" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
@@ -4324,7 +4324,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -4593,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4684,10 +4684,10 @@
         <v>-800</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I102" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1107,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
@@ -1119,13 +1119,13 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>1400</v>
@@ -1157,13 +1157,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-900</v>
@@ -1172,7 +1172,7 @@
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-1400</v>
@@ -1276,16 +1276,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-900</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
@@ -1364,22 +1364,22 @@
         <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-1400</v>
@@ -1505,22 +1505,22 @@
         <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-1400</v>
@@ -1552,16 +1552,16 @@
         <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
@@ -1834,16 +1834,16 @@
         <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
@@ -1928,16 +1928,16 @@
         <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
@@ -2068,19 +2068,19 @@
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="G41" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
       </c>
       <c r="I41" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="J41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="K41" s="3">
         <v>2500</v>
@@ -2109,10 +2109,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2297,25 +2297,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E46" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F46" s="3">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="G46" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="H46" s="3">
-        <v>5900</v>
+        <v>5400</v>
       </c>
       <c r="I46" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="J46" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K46" s="3">
         <v>2600</v>
@@ -2391,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39500</v>
+        <v>36400</v>
       </c>
       <c r="E48" s="3">
-        <v>37200</v>
+        <v>34300</v>
       </c>
       <c r="F48" s="3">
-        <v>44800</v>
+        <v>41300</v>
       </c>
       <c r="G48" s="3">
-        <v>44200</v>
+        <v>40700</v>
       </c>
       <c r="H48" s="3">
-        <v>43000</v>
+        <v>39700</v>
       </c>
       <c r="I48" s="3">
-        <v>42700</v>
+        <v>39300</v>
       </c>
       <c r="J48" s="3">
-        <v>44700</v>
+        <v>41200</v>
       </c>
       <c r="K48" s="3">
         <v>40600</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41900</v>
+        <v>38600</v>
       </c>
       <c r="E54" s="3">
-        <v>40500</v>
+        <v>37400</v>
       </c>
       <c r="F54" s="3">
-        <v>48900</v>
+        <v>45100</v>
       </c>
       <c r="G54" s="3">
-        <v>49200</v>
+        <v>45400</v>
       </c>
       <c r="H54" s="3">
-        <v>48900</v>
+        <v>45100</v>
       </c>
       <c r="I54" s="3">
-        <v>49300</v>
+        <v>45400</v>
       </c>
       <c r="J54" s="3">
-        <v>46400</v>
+        <v>42800</v>
       </c>
       <c r="K54" s="3">
         <v>43300</v>
@@ -2770,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2917,7 +2917,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3008,10 +3008,10 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3184,22 +3184,22 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42600</v>
+        <v>-39300</v>
       </c>
       <c r="E72" s="3">
-        <v>-42000</v>
+        <v>-38800</v>
       </c>
       <c r="F72" s="3">
-        <v>-41100</v>
+        <v>-37900</v>
       </c>
       <c r="G72" s="3">
-        <v>-40500</v>
+        <v>-37300</v>
       </c>
       <c r="H72" s="3">
-        <v>-39900</v>
+        <v>-36800</v>
       </c>
       <c r="I72" s="3">
-        <v>-60400</v>
+        <v>-55700</v>
       </c>
       <c r="J72" s="3">
-        <v>-57400</v>
+        <v>-52900</v>
       </c>
       <c r="K72" s="3">
         <v>-55700</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41400</v>
+        <v>38100</v>
       </c>
       <c r="E76" s="3">
-        <v>40000</v>
+        <v>36900</v>
       </c>
       <c r="F76" s="3">
-        <v>48800</v>
+        <v>45000</v>
       </c>
       <c r="G76" s="3">
-        <v>49000</v>
+        <v>45200</v>
       </c>
       <c r="H76" s="3">
-        <v>48500</v>
+        <v>44700</v>
       </c>
       <c r="I76" s="3">
-        <v>48900</v>
+        <v>45100</v>
       </c>
       <c r="J76" s="3">
-        <v>46100</v>
+        <v>42500</v>
       </c>
       <c r="K76" s="3">
         <v>42900</v>
@@ -3772,16 +3772,16 @@
         <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
@@ -4123,7 +4123,7 @@
         <v>-600</v>
       </c>
       <c r="F89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
@@ -4135,7 +4135,7 @@
         <v>-600</v>
       </c>
       <c r="J89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
@@ -4324,7 +4324,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -4593,7 +4593,7 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4672,25 +4672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E102" s="3">
         <v>-800</v>
       </c>
       <c r="F102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G102" s="3">
         <v>-800</v>
       </c>
       <c r="H102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -758,7 +762,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -784,8 +788,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,8 +838,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +888,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,19 +1008,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1017,29 +1037,32 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-3000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,55 +1127,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1163,40 +1193,43 @@
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,8 +1247,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,11 +1278,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1261,63 +1295,69 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-900</v>
       </c>
       <c r="I21" s="3">
         <v>-900</v>
       </c>
       <c r="J21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1334,17 +1374,17 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
@@ -1355,8 +1395,11 @@
       <c r="Q22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1370,40 +1413,43 @@
         <v>-800</v>
       </c>
       <c r="G23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
       </c>
       <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-900</v>
       </c>
       <c r="Q23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1432,25 +1478,28 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,8 +1545,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1511,40 +1563,43 @@
         <v>-800</v>
       </c>
       <c r="G26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-900</v>
       </c>
       <c r="Q26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1558,40 +1613,43 @@
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-900</v>
       </c>
       <c r="Q27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,8 +1845,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1808,11 +1878,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1825,8 +1895,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1840,40 +1913,43 @@
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-900</v>
       </c>
       <c r="Q33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,8 +1995,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1934,92 +2013,98 @@
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-900</v>
       </c>
       <c r="Q35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,76 +2142,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>3800</v>
-      </c>
       <c r="G41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>4300</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2135,8 +2225,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2150,8 +2240,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2165,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2177,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2186,19 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,8 +2340,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2283,74 +2382,80 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2358,8 +2463,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2370,8 +2475,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2385,55 +2490,61 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E48" s="3">
         <v>36400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34300</v>
       </c>
-      <c r="F48" s="3">
-        <v>41300</v>
-      </c>
       <c r="G48" s="3">
+        <v>41200</v>
+      </c>
+      <c r="H48" s="3">
         <v>40700</v>
       </c>
-      <c r="H48" s="3">
-        <v>39700</v>
-      </c>
       <c r="I48" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J48" s="3">
         <v>39300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2479,8 +2590,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,8 +2690,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2584,8 +2704,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2593,8 +2713,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2605,8 +2725,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2620,8 +2740,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E54" s="3">
         <v>38600</v>
       </c>
-      <c r="E54" s="3">
-        <v>37400</v>
-      </c>
       <c r="F54" s="3">
+        <v>37300</v>
+      </c>
+      <c r="G54" s="3">
         <v>45100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>45300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="J54" s="3">
         <v>45400</v>
       </c>
-      <c r="H54" s="3">
-        <v>45100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45400</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,16 +2882,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -2788,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
@@ -2799,8 +2930,11 @@
       <c r="Q57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2810,8 +2944,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2828,37 +2962,40 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>7700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2893,16 +3030,19 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2929,19 +3069,22 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,13 +3125,16 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3005,10 +3151,10 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3020,10 +3166,10 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -3034,8 +3180,11 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,28 +3330,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3205,25 +3363,28 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
+        <v>300</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39300</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
-        <v>-38800</v>
+        <v>-39200</v>
       </c>
       <c r="F72" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="G72" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-37300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="L72" s="3">
         <v>-55700</v>
       </c>
-      <c r="J72" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-55700</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E76" s="3">
         <v>38100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>36900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>44900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>44700</v>
+      </c>
+      <c r="J76" s="3">
         <v>45000</v>
       </c>
-      <c r="G76" s="3">
-        <v>45200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>44700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>45100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,60 +3900,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3778,40 +3973,43 @@
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-900</v>
       </c>
       <c r="Q81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,8 +4325,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4120,46 +4337,49 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
       </c>
       <c r="G89" s="3">
         <v>-500</v>
       </c>
       <c r="H89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
       </c>
       <c r="J89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4397,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4198,14 +4419,14 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4216,16 +4437,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,22 +4545,25 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
@@ -4342,31 +4572,34 @@
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,13 +4815,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4590,37 +4836,40 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4666,51 +4915,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-800</v>
+        <v>6700</v>
       </c>
       <c r="E102" s="3">
         <v>-800</v>
       </c>
       <c r="F102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -765,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -791,8 +795,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,8 +848,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -891,8 +901,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +924,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -961,8 +975,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,8 +1028,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1022,11 +1042,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1040,29 +1060,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,8 +1134,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,58 +1154,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
@@ -1196,40 +1226,43 @@
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1281,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,11 +1315,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1298,8 +1332,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,49 +1344,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-900</v>
       </c>
       <c r="J21" s="3">
         <v>-900</v>
       </c>
       <c r="K21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
       </c>
       <c r="R21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,8 +1399,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1377,17 +1417,17 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
@@ -1398,16 +1438,19 @@
       <c r="R22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
@@ -1416,40 +1459,43 @@
         <v>-800</v>
       </c>
       <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-900</v>
       </c>
       <c r="J23" s="3">
         <v>-900</v>
       </c>
       <c r="K23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-900</v>
       </c>
       <c r="R23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1481,25 +1527,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,16 +1597,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
@@ -1566,48 +1618,51 @@
         <v>-800</v>
       </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-900</v>
       </c>
       <c r="J26" s="3">
         <v>-900</v>
       </c>
       <c r="K26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-900</v>
       </c>
       <c r="R26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
@@ -1616,40 +1671,43 @@
         <v>-800</v>
       </c>
       <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-900</v>
       </c>
       <c r="R27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,8 +1756,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +1809,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1862,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,8 +1915,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1898,16 +1968,19 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
@@ -1916,40 +1989,43 @@
         <v>-800</v>
       </c>
       <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-900</v>
       </c>
       <c r="R33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,16 +2074,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
@@ -2016,95 +2095,101 @@
         <v>-800</v>
       </c>
       <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-900</v>
       </c>
       <c r="R35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2208,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,81 +2229,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8900</v>
+        <v>6700</v>
       </c>
       <c r="E41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>3700</v>
-      </c>
       <c r="H41" s="3">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="I41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>2000</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2228,8 +2318,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2243,13 +2333,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2261,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2273,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2282,19 +2375,22 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2343,8 +2439,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2385,66 +2484,72 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8900</v>
+        <v>6800</v>
       </c>
       <c r="E46" s="3">
-        <v>2200</v>
+        <v>9100</v>
       </c>
       <c r="F46" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="G46" s="3">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="H46" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="I46" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="J46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,11 +2559,11 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2466,8 +2571,8 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2478,8 +2583,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2493,58 +2598,64 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38900</v>
+        <v>40700</v>
       </c>
       <c r="E48" s="3">
-        <v>36400</v>
+        <v>39700</v>
       </c>
       <c r="F48" s="3">
-        <v>34300</v>
+        <v>37100</v>
       </c>
       <c r="G48" s="3">
+        <v>35000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>42100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>39300</v>
+      </c>
+      <c r="L48" s="3">
         <v>41200</v>
       </c>
-      <c r="H48" s="3">
-        <v>40700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>39600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>41200</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2593,8 +2704,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2757,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,8 +2810,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2707,8 +2827,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2716,8 +2836,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2728,8 +2848,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2743,8 +2863,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +2916,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47800</v>
+        <v>47500</v>
       </c>
       <c r="E54" s="3">
-        <v>38600</v>
+        <v>48800</v>
       </c>
       <c r="F54" s="3">
-        <v>37300</v>
+        <v>39400</v>
       </c>
       <c r="G54" s="3">
-        <v>45100</v>
+        <v>38100</v>
       </c>
       <c r="H54" s="3">
-        <v>45300</v>
+        <v>46000</v>
       </c>
       <c r="I54" s="3">
-        <v>45000</v>
+        <v>46300</v>
       </c>
       <c r="J54" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K54" s="3">
         <v>45400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +2992,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,19 +3013,20 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2922,10 +3053,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
@@ -2933,8 +3064,11 @@
       <c r="R57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2947,8 +3081,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2965,26 +3099,29 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,13 +3129,13 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -3033,19 +3170,22 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3072,19 +3212,22 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
       </c>
       <c r="R60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,13 +3271,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3154,10 +3300,10 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3169,10 +3315,10 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -3183,8 +3329,11 @@
       <c r="R62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3382,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3435,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,28 +3488,31 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3366,25 +3524,28 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3564,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3615,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,8 +3668,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3553,8 +3721,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3774,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-41500</v>
       </c>
       <c r="E72" s="3">
-        <v>-39200</v>
+        <v>-40600</v>
       </c>
       <c r="F72" s="3">
-        <v>-38700</v>
+        <v>-40000</v>
       </c>
       <c r="G72" s="3">
-        <v>-37800</v>
+        <v>-39500</v>
       </c>
       <c r="H72" s="3">
-        <v>-37300</v>
+        <v>-38600</v>
       </c>
       <c r="I72" s="3">
-        <v>-36800</v>
+        <v>-38100</v>
       </c>
       <c r="J72" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-55600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +3880,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +3933,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +3986,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="E76" s="3">
-        <v>38100</v>
+        <v>48400</v>
       </c>
       <c r="F76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>46100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>42500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>42900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>42600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>35100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>36900</v>
       </c>
-      <c r="G76" s="3">
-        <v>44900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>45200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>44700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>45000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>42500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>42900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>42600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>34100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>35100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>36900</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,71 +4092,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
@@ -3976,40 +4171,43 @@
         <v>-800</v>
       </c>
       <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-900</v>
       </c>
       <c r="R81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,8 +4226,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4078,8 +4277,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4330,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4383,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4436,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4489,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,58 +4542,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-600</v>
       </c>
       <c r="K89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,13 +4618,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4422,14 +4643,14 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4440,16 +4661,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4722,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,25 +4775,28 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
@@ -4575,31 +4805,34 @@
         <v>-300</v>
       </c>
       <c r="K94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +4851,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4668,8 +4902,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +4955,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5008,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,16 +5061,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4839,37 +5085,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4918,54 +5167,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6700</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>6900</v>
       </c>
       <c r="F102" s="3">
         <v>-800</v>
       </c>
       <c r="G102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1164,7 +1164,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
@@ -1173,13 +1173,13 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
@@ -1232,7 +1232,7 @@
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-1000</v>
@@ -1344,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1450,10 +1450,10 @@
         <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G23" s="3">
         <v>-800</v>
@@ -1609,10 +1609,10 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G26" s="3">
         <v>-800</v>
@@ -1662,10 +1662,10 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G27" s="3">
         <v>-800</v>
@@ -1980,10 +1980,10 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G33" s="3">
         <v>-800</v>
@@ -2086,10 +2086,10 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G35" s="3">
         <v>-800</v>
@@ -2236,25 +2236,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="E41" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I41" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J41" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>5900</v>
@@ -2295,10 +2295,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G42" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2501,25 +2501,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="E46" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="F46" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H46" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I46" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J46" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="K46" s="3">
         <v>6100</v>
@@ -2607,25 +2607,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40700</v>
+        <v>38300</v>
       </c>
       <c r="E48" s="3">
-        <v>39700</v>
+        <v>37300</v>
       </c>
       <c r="F48" s="3">
-        <v>37100</v>
+        <v>34900</v>
       </c>
       <c r="G48" s="3">
-        <v>35000</v>
+        <v>32900</v>
       </c>
       <c r="H48" s="3">
-        <v>42100</v>
+        <v>39600</v>
       </c>
       <c r="I48" s="3">
-        <v>41600</v>
+        <v>39100</v>
       </c>
       <c r="J48" s="3">
-        <v>40500</v>
+        <v>38000</v>
       </c>
       <c r="K48" s="3">
         <v>39300</v>
@@ -2925,25 +2925,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47500</v>
+        <v>44700</v>
       </c>
       <c r="E54" s="3">
-        <v>48800</v>
+        <v>45900</v>
       </c>
       <c r="F54" s="3">
-        <v>39400</v>
+        <v>37000</v>
       </c>
       <c r="G54" s="3">
-        <v>38100</v>
+        <v>35800</v>
       </c>
       <c r="H54" s="3">
-        <v>46000</v>
+        <v>43300</v>
       </c>
       <c r="I54" s="3">
-        <v>46300</v>
+        <v>43500</v>
       </c>
       <c r="J54" s="3">
-        <v>46000</v>
+        <v>43200</v>
       </c>
       <c r="K54" s="3">
         <v>45400</v>
@@ -3303,7 +3303,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3497,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3512,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -3783,25 +3783,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41500</v>
+        <v>-39000</v>
       </c>
       <c r="E72" s="3">
-        <v>-40600</v>
+        <v>-38200</v>
       </c>
       <c r="F72" s="3">
-        <v>-40000</v>
+        <v>-37700</v>
       </c>
       <c r="G72" s="3">
-        <v>-39500</v>
+        <v>-37200</v>
       </c>
       <c r="H72" s="3">
-        <v>-38600</v>
+        <v>-36300</v>
       </c>
       <c r="I72" s="3">
-        <v>-38100</v>
+        <v>-35800</v>
       </c>
       <c r="J72" s="3">
-        <v>-37500</v>
+        <v>-35300</v>
       </c>
       <c r="K72" s="3">
         <v>-55600</v>
@@ -3995,25 +3995,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46800</v>
+        <v>44000</v>
       </c>
       <c r="E76" s="3">
-        <v>48400</v>
+        <v>45500</v>
       </c>
       <c r="F76" s="3">
-        <v>38900</v>
+        <v>36600</v>
       </c>
       <c r="G76" s="3">
-        <v>37700</v>
+        <v>35400</v>
       </c>
       <c r="H76" s="3">
-        <v>45900</v>
+        <v>43100</v>
       </c>
       <c r="I76" s="3">
-        <v>46100</v>
+        <v>43400</v>
       </c>
       <c r="J76" s="3">
-        <v>45600</v>
+        <v>42900</v>
       </c>
       <c r="K76" s="3">
         <v>45000</v>
@@ -4162,10 +4162,10 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G81" s="3">
         <v>-800</v>
@@ -4551,16 +4551,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
@@ -4569,7 +4569,7 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K89" s="3">
         <v>-600</v>
@@ -4784,7 +4784,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="E94" s="3">
         <v>-700</v>
@@ -5073,7 +5073,7 @@
         <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5176,22 +5176,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="E102" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="F102" s="3">
         <v>-800</v>
       </c>
       <c r="G102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1173,10 +1173,10 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>900</v>
@@ -1232,7 +1232,7 @@
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K18" s="3">
         <v>-1000</v>
@@ -1453,7 +1453,7 @@
         <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G23" s="3">
         <v>-800</v>
@@ -1612,7 +1612,7 @@
         <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G26" s="3">
         <v>-800</v>
@@ -1665,7 +1665,7 @@
         <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-800</v>
@@ -1983,7 +1983,7 @@
         <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G33" s="3">
         <v>-800</v>
@@ -2089,7 +2089,7 @@
         <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G35" s="3">
         <v>-800</v>
@@ -2236,22 +2236,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E41" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I41" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J41" s="3">
         <v>900</v>
@@ -2295,10 +2295,10 @@
         <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2501,25 +2501,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E46" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F46" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G46" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H46" s="3">
         <v>3700</v>
       </c>
       <c r="I46" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J46" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K46" s="3">
         <v>6100</v>
@@ -2607,25 +2607,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38300</v>
+        <v>39000</v>
       </c>
       <c r="E48" s="3">
-        <v>37300</v>
+        <v>38000</v>
       </c>
       <c r="F48" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="G48" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="H48" s="3">
-        <v>39600</v>
+        <v>40300</v>
       </c>
       <c r="I48" s="3">
-        <v>39100</v>
+        <v>39800</v>
       </c>
       <c r="J48" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="K48" s="3">
         <v>39300</v>
@@ -2925,25 +2925,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44700</v>
+        <v>45500</v>
       </c>
       <c r="E54" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="F54" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="G54" s="3">
-        <v>35800</v>
+        <v>36500</v>
       </c>
       <c r="H54" s="3">
-        <v>43300</v>
+        <v>44100</v>
       </c>
       <c r="I54" s="3">
-        <v>43500</v>
+        <v>44300</v>
       </c>
       <c r="J54" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="K54" s="3">
         <v>45400</v>
@@ -3497,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3783,25 +3783,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39000</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
-        <v>-38200</v>
+        <v>-38900</v>
       </c>
       <c r="F72" s="3">
-        <v>-37700</v>
+        <v>-38300</v>
       </c>
       <c r="G72" s="3">
-        <v>-37200</v>
+        <v>-37900</v>
       </c>
       <c r="H72" s="3">
-        <v>-36300</v>
+        <v>-37000</v>
       </c>
       <c r="I72" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="J72" s="3">
-        <v>-35300</v>
+        <v>-35900</v>
       </c>
       <c r="K72" s="3">
         <v>-55600</v>
@@ -3995,25 +3995,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="E76" s="3">
-        <v>45500</v>
+        <v>46400</v>
       </c>
       <c r="F76" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="G76" s="3">
-        <v>35400</v>
+        <v>36100</v>
       </c>
       <c r="H76" s="3">
-        <v>43100</v>
+        <v>43900</v>
       </c>
       <c r="I76" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="J76" s="3">
-        <v>42900</v>
+        <v>43700</v>
       </c>
       <c r="K76" s="3">
         <v>45000</v>
@@ -4165,7 +4165,7 @@
         <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G81" s="3">
         <v>-800</v>
@@ -4551,7 +4551,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
@@ -4784,7 +4784,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E94" s="3">
         <v>-700</v>
@@ -5073,7 +5073,7 @@
         <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5176,22 +5176,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F102" s="3">
         <v>-800</v>
       </c>
       <c r="G102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -772,7 +776,7 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -798,8 +802,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,8 +858,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -904,8 +914,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -978,8 +992,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1031,8 +1048,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1045,11 +1065,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1063,29 +1083,32 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-3000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,8 +1160,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1155,16 +1181,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
@@ -1173,43 +1200,46 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
@@ -1232,37 +1262,40 @@
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +1315,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1335,8 +1369,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,52 +1381,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-900</v>
       </c>
       <c r="K21" s="3">
         <v>-900</v>
       </c>
       <c r="L21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
       </c>
       <c r="S21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1402,8 +1442,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1420,17 +1460,17 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
@@ -1441,61 +1481,67 @@
       <c r="S22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-800</v>
       </c>
       <c r="G23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-800</v>
       </c>
       <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
       </c>
       <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-900</v>
       </c>
       <c r="S23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1530,25 +1576,28 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1600,114 +1649,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-800</v>
       </c>
       <c r="G26" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-800</v>
       </c>
       <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
       </c>
       <c r="L26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-900</v>
       </c>
       <c r="S26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-800</v>
       </c>
       <c r="G27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-900</v>
       </c>
       <c r="S27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1759,8 +1817,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1812,8 +1873,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +1929,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1918,8 +1985,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1971,61 +2041,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-800</v>
       </c>
       <c r="G33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-900</v>
       </c>
       <c r="S33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2077,119 +2153,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-800</v>
       </c>
       <c r="G35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-900</v>
       </c>
       <c r="S35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2294,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2230,61 +2316,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6400</v>
+        <v>34400</v>
       </c>
       <c r="E41" s="3">
-        <v>8700</v>
+        <v>6100</v>
       </c>
       <c r="F41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>500</v>
-      </c>
       <c r="H41" s="3">
-        <v>3700</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="J41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2294,24 +2384,24 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>2000</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2336,8 +2426,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2438,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2357,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2369,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2378,19 +2471,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2442,13 +2538,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2466,19 +2565,19 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2487,95 +2586,101 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6500</v>
+        <v>39300</v>
       </c>
       <c r="E46" s="3">
-        <v>8700</v>
+        <v>6200</v>
       </c>
       <c r="F46" s="3">
-        <v>2200</v>
+        <v>8300</v>
       </c>
       <c r="G46" s="3">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="H46" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="I46" s="3">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="J46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2586,8 +2691,8 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2601,61 +2706,67 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="E48" s="3">
-        <v>38000</v>
+        <v>37000</v>
       </c>
       <c r="F48" s="3">
-        <v>35500</v>
+        <v>36000</v>
       </c>
       <c r="G48" s="3">
-        <v>33500</v>
+        <v>33700</v>
       </c>
       <c r="H48" s="3">
-        <v>40300</v>
+        <v>31800</v>
       </c>
       <c r="I48" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>38700</v>
+      </c>
+      <c r="L48" s="3">
+        <v>39300</v>
+      </c>
+      <c r="M48" s="3">
+        <v>41200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>40600</v>
+      </c>
+      <c r="O48" s="3">
         <v>39800</v>
       </c>
-      <c r="J48" s="3">
-        <v>38700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>39300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>41200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>40600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>39800</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2707,8 +2818,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2760,8 +2874,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2813,8 +2930,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2830,8 +2950,8 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2839,8 +2959,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2851,8 +2971,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2866,8 +2986,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2919,61 +3042,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45500</v>
+        <v>79300</v>
       </c>
       <c r="E54" s="3">
-        <v>46700</v>
+        <v>43100</v>
       </c>
       <c r="F54" s="3">
-        <v>37700</v>
+        <v>44300</v>
       </c>
       <c r="G54" s="3">
-        <v>36500</v>
+        <v>35800</v>
       </c>
       <c r="H54" s="3">
-        <v>44100</v>
+        <v>34600</v>
       </c>
       <c r="I54" s="3">
-        <v>44300</v>
+        <v>41800</v>
       </c>
       <c r="J54" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K54" s="3">
         <v>44000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2993,8 +3122,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3014,22 +3144,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3056,10 +3187,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -3067,8 +3198,11 @@
       <c r="S57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3084,8 +3218,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3102,43 +3236,46 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>7700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3173,19 +3310,22 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3197,7 +3337,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3215,19 +3355,22 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,13 +3417,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,7 +3449,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3318,10 +3464,10 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3332,8 +3478,11 @@
       <c r="S62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3385,8 +3534,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3590,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,31 +3646,34 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3527,25 +3685,28 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3565,8 +3726,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3618,8 +3780,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3836,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3724,8 +3892,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3777,61 +3948,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="E72" s="3">
-        <v>-38900</v>
+        <v>-37600</v>
       </c>
       <c r="F72" s="3">
-        <v>-38300</v>
+        <v>-36800</v>
       </c>
       <c r="G72" s="3">
-        <v>-37900</v>
+        <v>-36400</v>
       </c>
       <c r="H72" s="3">
-        <v>-37000</v>
+        <v>-35900</v>
       </c>
       <c r="I72" s="3">
-        <v>-36400</v>
+        <v>-35100</v>
       </c>
       <c r="J72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-35900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-49900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3883,8 +4060,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +4116,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3989,61 +4172,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44800</v>
+        <v>78000</v>
       </c>
       <c r="E76" s="3">
-        <v>46400</v>
+        <v>42500</v>
       </c>
       <c r="F76" s="3">
-        <v>37300</v>
+        <v>43900</v>
       </c>
       <c r="G76" s="3">
-        <v>36100</v>
+        <v>35300</v>
       </c>
       <c r="H76" s="3">
-        <v>43900</v>
+        <v>34200</v>
       </c>
       <c r="I76" s="3">
-        <v>44200</v>
+        <v>41600</v>
       </c>
       <c r="J76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K76" s="3">
         <v>43700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4095,119 +4284,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-800</v>
       </c>
       <c r="G81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-900</v>
       </c>
       <c r="S81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4227,8 +4425,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4280,8 +4479,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4333,8 +4535,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4386,8 +4591,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4439,8 +4647,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4492,8 +4703,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4545,22 +4759,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
       </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
@@ -4569,37 +4786,40 @@
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4619,61 +4839,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4725,8 +4949,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4778,28 +5005,31 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2100</v>
+        <v>-6300</v>
       </c>
       <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
@@ -4808,31 +5038,34 @@
         <v>-300</v>
       </c>
       <c r="L94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="M94" s="3">
         <v>-500</v>
       </c>
       <c r="N94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4852,8 +5085,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4905,8 +5139,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4958,8 +5195,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5011,8 +5251,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5064,19 +5307,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>7800</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5088,37 +5334,40 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5170,19 +5419,22 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>28300</v>
       </c>
       <c r="E102" s="3">
-        <v>6600</v>
+        <v>-2200</v>
       </c>
       <c r="F102" s="3">
-        <v>-800</v>
+        <v>6200</v>
       </c>
       <c r="G102" s="3">
         <v>-800</v>
@@ -5191,36 +5443,39 @@
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>
       </c>
       <c r="K102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>BNNLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -770,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -779,7 +783,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -805,8 +809,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,8 +868,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,8 +927,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,13 +952,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>1000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -995,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1068,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1068,11 +1088,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1086,29 +1106,32 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,8 +1186,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-2000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-800</v>
       </c>
       <c r="G18" s="3">
         <v>-800</v>
       </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,13 +1349,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1355,11 +1389,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1372,64 +1406,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-2000</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-900</v>
       </c>
       <c r="L21" s="3">
         <v>-900</v>
       </c>
       <c r="M21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1445,8 +1485,8 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1463,17 +1503,17 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
@@ -1484,64 +1524,70 @@
       <c r="T22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
       </c>
       <c r="I23" s="3">
         <v>-800</v>
       </c>
       <c r="J23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-900</v>
       </c>
       <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-900</v>
       </c>
       <c r="T23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1579,25 +1625,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-800</v>
       </c>
       <c r="I26" s="3">
         <v>-800</v>
       </c>
       <c r="J26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-900</v>
       </c>
       <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-900</v>
       </c>
       <c r="T26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-900</v>
       </c>
       <c r="T27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1876,8 +1937,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,13 +2055,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2027,11 +2097,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2044,64 +2114,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-900</v>
       </c>
       <c r="T33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-900</v>
       </c>
       <c r="T35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34400</v>
+        <v>31300</v>
       </c>
       <c r="E41" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,24 +2477,24 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>1900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2300</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2429,19 +2519,22 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2453,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2465,7 +2558,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2474,19 +2567,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2541,17 +2637,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2568,19 +2667,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2589,101 +2688,107 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>39300</v>
+        <v>31600</v>
       </c>
       <c r="E46" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F46" s="3">
         <v>6200</v>
       </c>
-      <c r="F46" s="3">
-        <v>8300</v>
-      </c>
       <c r="G46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2694,8 +2799,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2709,64 +2814,70 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="E48" s="3">
-        <v>37000</v>
+        <v>39800</v>
       </c>
       <c r="F48" s="3">
-        <v>36000</v>
+        <v>36800</v>
       </c>
       <c r="G48" s="3">
-        <v>33700</v>
+        <v>35900</v>
       </c>
       <c r="H48" s="3">
-        <v>31800</v>
+        <v>33600</v>
       </c>
       <c r="I48" s="3">
-        <v>38200</v>
+        <v>31600</v>
       </c>
       <c r="J48" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K48" s="3">
         <v>37700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2821,8 +2932,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,8 +3050,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2953,8 +3073,8 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2962,8 +3082,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2974,8 +3094,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2989,8 +3109,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79300</v>
+        <v>77100</v>
       </c>
       <c r="E54" s="3">
-        <v>43100</v>
+        <v>79000</v>
       </c>
       <c r="F54" s="3">
-        <v>44300</v>
+        <v>43000</v>
       </c>
       <c r="G54" s="3">
-        <v>35800</v>
+        <v>44100</v>
       </c>
       <c r="H54" s="3">
-        <v>34600</v>
+        <v>35600</v>
       </c>
       <c r="I54" s="3">
-        <v>41800</v>
+        <v>34400</v>
       </c>
       <c r="J54" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K54" s="3">
         <v>42000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,25 +3275,26 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3190,10 +3321,10 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
@@ -3201,8 +3332,11 @@
       <c r="T57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3221,8 +3355,8 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3239,26 +3373,29 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>7700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3266,19 +3403,19 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3313,19 +3450,22 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3337,10 +3477,10 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -3358,19 +3498,22 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,13 +3563,16 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3452,7 +3598,7 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
@@ -3467,10 +3613,10 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>300</v>
       </c>
       <c r="R62" s="3">
         <v>300</v>
@@ -3481,8 +3627,11 @@
       <c r="T62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,19 +3804,22 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -3670,13 +3828,13 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3688,25 +3846,28 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,8 +4004,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3895,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38400</v>
+        <v>-39700</v>
       </c>
       <c r="E72" s="3">
-        <v>-37600</v>
+        <v>-38300</v>
       </c>
       <c r="F72" s="3">
-        <v>-36800</v>
+        <v>-37500</v>
       </c>
       <c r="G72" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="H72" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-35900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-35900</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-47400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78000</v>
+        <v>76200</v>
       </c>
       <c r="E76" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>43800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>43700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="N76" s="3">
         <v>42500</v>
       </c>
-      <c r="F76" s="3">
-        <v>43900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>35300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>34200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>41600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>41900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>43700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>45000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>42500</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-900</v>
       </c>
       <c r="T81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,8 +4624,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4482,8 +4681,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,64 +4976,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
         <v>-700</v>
       </c>
       <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
       </c>
       <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,20 +5060,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4870,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4888,16 +5109,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,31 +5235,34 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -5041,31 +5271,34 @@
         <v>-300</v>
       </c>
       <c r="M94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="N94" s="3">
         <v>-500</v>
       </c>
       <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,8 +5319,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5142,8 +5376,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,23 +5553,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>35300</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5337,37 +5583,40 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5422,25 +5671,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28300</v>
+        <v>-2900</v>
       </c>
       <c r="E102" s="3">
-        <v>-2200</v>
+        <v>28200</v>
       </c>
       <c r="F102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G102" s="3">
         <v>6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-700</v>
       </c>
       <c r="I102" s="3">
         <v>-700</v>
@@ -5452,30 +5704,33 @@
         <v>-700</v>
       </c>
       <c r="L102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M102" s="3">
         <v>4500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1227,7 +1227,7 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
@@ -1286,7 +1286,7 @@
         <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
@@ -2410,10 +2410,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31300</v>
+        <v>31500</v>
       </c>
       <c r="E41" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="F41" s="3">
         <v>6100</v>
@@ -2705,16 +2705,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="E46" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="F46" s="3">
         <v>6200</v>
       </c>
       <c r="G46" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H46" s="3">
         <v>2100</v>
@@ -2823,25 +2823,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39600</v>
+        <v>39700</v>
       </c>
       <c r="E48" s="3">
-        <v>39800</v>
+        <v>40000</v>
       </c>
       <c r="F48" s="3">
-        <v>36800</v>
+        <v>37000</v>
       </c>
       <c r="G48" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="H48" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="I48" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="J48" s="3">
-        <v>38100</v>
+        <v>38200</v>
       </c>
       <c r="K48" s="3">
         <v>37700</v>
@@ -3177,25 +3177,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="E54" s="3">
-        <v>79000</v>
+        <v>79300</v>
       </c>
       <c r="F54" s="3">
-        <v>43000</v>
+        <v>43100</v>
       </c>
       <c r="G54" s="3">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="H54" s="3">
-        <v>35600</v>
+        <v>35800</v>
       </c>
       <c r="I54" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="J54" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K54" s="3">
         <v>42000</v>
@@ -3816,7 +3816,7 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -4131,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39700</v>
+        <v>-39800</v>
       </c>
       <c r="E72" s="3">
-        <v>-38300</v>
+        <v>-38400</v>
       </c>
       <c r="F72" s="3">
-        <v>-37500</v>
+        <v>-37600</v>
       </c>
       <c r="G72" s="3">
-        <v>-36700</v>
+        <v>-36800</v>
       </c>
       <c r="H72" s="3">
-        <v>-36200</v>
+        <v>-36400</v>
       </c>
       <c r="I72" s="3">
-        <v>-35700</v>
+        <v>-35900</v>
       </c>
       <c r="J72" s="3">
-        <v>-34900</v>
+        <v>-35100</v>
       </c>
       <c r="K72" s="3">
         <v>-34500</v>
@@ -4367,25 +4367,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76200</v>
+        <v>76500</v>
       </c>
       <c r="E76" s="3">
-        <v>77700</v>
+        <v>78000</v>
       </c>
       <c r="F76" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="G76" s="3">
-        <v>43800</v>
+        <v>43900</v>
       </c>
       <c r="H76" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="I76" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="J76" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="K76" s="3">
         <v>41900</v>
@@ -5067,25 +5067,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>600</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-600</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="F100" s="3">
         <v>600</v>
@@ -5683,10 +5683,10 @@
         <v>-2900</v>
       </c>
       <c r="E102" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G102" s="3">
         <v>6200</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -1227,7 +1227,7 @@
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
@@ -1286,7 +1286,7 @@
         <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
@@ -1415,10 +1415,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F21" s="3">
         <v>-900</v>
@@ -1533,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
@@ -1548,7 +1548,7 @@
         <v>-700</v>
       </c>
       <c r="I23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J23" s="3">
         <v>-800</v>
@@ -1710,10 +1710,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F26" s="3">
         <v>-900</v>
@@ -1725,7 +1725,7 @@
         <v>-700</v>
       </c>
       <c r="I26" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J26" s="3">
         <v>-800</v>
@@ -1772,7 +1772,7 @@
         <v>-1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
@@ -1787,7 +1787,7 @@
         <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
@@ -2126,7 +2126,7 @@
         <v>-1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
@@ -2141,7 +2141,7 @@
         <v>-700</v>
       </c>
       <c r="J33" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
@@ -2244,7 +2244,7 @@
         <v>-1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
@@ -2259,7 +2259,7 @@
         <v>-700</v>
       </c>
       <c r="J35" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
@@ -2410,16 +2410,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="E41" s="3">
-        <v>34400</v>
+        <v>33700</v>
       </c>
       <c r="F41" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G41" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2428,7 +2428,7 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K41" s="3">
         <v>4100</v>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I42" s="3">
         <v>2300</v>
@@ -2649,7 +2649,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2705,19 +2705,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="E46" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="F46" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="G46" s="3">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="H46" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I46" s="3">
         <v>2800</v>
@@ -2764,7 +2764,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>4</v>
@@ -2823,25 +2823,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39700</v>
+        <v>38900</v>
       </c>
       <c r="E48" s="3">
-        <v>40000</v>
+        <v>39200</v>
       </c>
       <c r="F48" s="3">
-        <v>37000</v>
+        <v>36200</v>
       </c>
       <c r="G48" s="3">
-        <v>36000</v>
+        <v>35300</v>
       </c>
       <c r="H48" s="3">
-        <v>33700</v>
+        <v>33000</v>
       </c>
       <c r="I48" s="3">
-        <v>31800</v>
+        <v>31100</v>
       </c>
       <c r="J48" s="3">
-        <v>38200</v>
+        <v>37400</v>
       </c>
       <c r="K48" s="3">
         <v>37700</v>
@@ -3177,25 +3177,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77400</v>
+        <v>75800</v>
       </c>
       <c r="E54" s="3">
-        <v>79300</v>
+        <v>77700</v>
       </c>
       <c r="F54" s="3">
-        <v>43100</v>
+        <v>42300</v>
       </c>
       <c r="G54" s="3">
-        <v>44300</v>
+        <v>43400</v>
       </c>
       <c r="H54" s="3">
-        <v>35800</v>
+        <v>35000</v>
       </c>
       <c r="I54" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="J54" s="3">
-        <v>41800</v>
+        <v>40900</v>
       </c>
       <c r="K54" s="3">
         <v>42000</v>
@@ -3459,7 +3459,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
@@ -3477,7 +3477,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3816,7 +3816,7 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
@@ -4131,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39800</v>
+        <v>-39000</v>
       </c>
       <c r="E72" s="3">
-        <v>-38400</v>
+        <v>-37600</v>
       </c>
       <c r="F72" s="3">
-        <v>-37600</v>
+        <v>-36900</v>
       </c>
       <c r="G72" s="3">
-        <v>-36800</v>
+        <v>-36100</v>
       </c>
       <c r="H72" s="3">
-        <v>-36400</v>
+        <v>-35600</v>
       </c>
       <c r="I72" s="3">
-        <v>-35900</v>
+        <v>-35200</v>
       </c>
       <c r="J72" s="3">
-        <v>-35100</v>
+        <v>-34400</v>
       </c>
       <c r="K72" s="3">
         <v>-34500</v>
@@ -4367,25 +4367,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E76" s="3">
         <v>76500</v>
       </c>
-      <c r="E76" s="3">
-        <v>78000</v>
-      </c>
       <c r="F76" s="3">
-        <v>42500</v>
+        <v>41700</v>
       </c>
       <c r="G76" s="3">
-        <v>43900</v>
+        <v>43100</v>
       </c>
       <c r="H76" s="3">
-        <v>35300</v>
+        <v>34600</v>
       </c>
       <c r="I76" s="3">
-        <v>34200</v>
+        <v>33500</v>
       </c>
       <c r="J76" s="3">
-        <v>41600</v>
+        <v>40800</v>
       </c>
       <c r="K76" s="3">
         <v>41900</v>
@@ -4552,7 +4552,7 @@
         <v>-1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
@@ -4567,7 +4567,7 @@
         <v>-700</v>
       </c>
       <c r="J81" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
@@ -5247,10 +5247,10 @@
         <v>-2000</v>
       </c>
       <c r="E94" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G94" s="3">
         <v>-700</v>
@@ -5565,13 +5565,13 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>35300</v>
+        <v>34600</v>
       </c>
       <c r="F100" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G100" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5680,25 +5680,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="E102" s="3">
-        <v>28300</v>
+        <v>27700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G102" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I102" s="3">
         <v>-700</v>
       </c>
       <c r="J102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K102" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNNLF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42185</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -777,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -786,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -812,8 +816,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,8 +878,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,8 +940,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -953,13 +966,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>1000</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1012,8 +1026,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,16 +1088,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1091,11 +1111,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1109,29 +1129,32 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-3000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1212,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1209,126 +1235,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,17 +1383,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1392,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1409,67 +1443,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-900</v>
       </c>
       <c r="M21" s="3">
         <v>-900</v>
       </c>
       <c r="N21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-500</v>
       </c>
       <c r="U21" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,8 +1528,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1506,17 +1546,17 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
@@ -1527,67 +1567,73 @@
       <c r="U22" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-900</v>
       </c>
       <c r="M23" s="3">
         <v>-900</v>
       </c>
       <c r="N23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-900</v>
       </c>
       <c r="U23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1628,25 +1674,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,84 +1753,90 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
       </c>
       <c r="M26" s="3">
         <v>-900</v>
       </c>
       <c r="N26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-900</v>
       </c>
       <c r="U26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
@@ -1790,40 +1845,43 @@
         <v>-700</v>
       </c>
       <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-900</v>
       </c>
       <c r="U27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,8 +1939,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1940,8 +2001,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,8 +2063,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2058,17 +2125,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2100,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2117,25 +2187,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
@@ -2144,40 +2217,43 @@
         <v>-700</v>
       </c>
       <c r="K33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-900</v>
       </c>
       <c r="U33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2235,25 +2311,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
@@ -2262,104 +2341,110 @@
         <v>-700</v>
       </c>
       <c r="K35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-900</v>
       </c>
       <c r="U35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42185</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2466,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,100 +2490,104 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30800</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
-        <v>33700</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="3">
-        <v>8100</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5400</v>
       </c>
       <c r="H42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I42" s="3">
         <v>1800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2300</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2507,8 +2597,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2522,8 +2612,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,13 +2624,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2549,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2561,7 +2654,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2570,19 +2663,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2640,20 +2736,23 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2670,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2691,84 +2790,90 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E46" s="3">
         <v>31100</v>
       </c>
-      <c r="E46" s="3">
-        <v>38500</v>
-      </c>
       <c r="F46" s="3">
+        <v>38400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6100</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2778,20 +2883,20 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2802,8 +2907,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2817,67 +2922,73 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38900</v>
+        <v>39100</v>
       </c>
       <c r="E48" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="F48" s="3">
-        <v>36200</v>
+        <v>39100</v>
       </c>
       <c r="G48" s="3">
-        <v>35300</v>
+        <v>36100</v>
       </c>
       <c r="H48" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I48" s="3">
         <v>33000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>45100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2935,8 +3046,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2994,8 +3108,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3053,8 +3170,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3076,8 +3196,8 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3085,8 +3205,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3097,8 +3217,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3112,8 +3232,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3171,67 +3294,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E54" s="3">
-        <v>77700</v>
+        <v>75700</v>
       </c>
       <c r="F54" s="3">
-        <v>42300</v>
+        <v>77500</v>
       </c>
       <c r="G54" s="3">
-        <v>43400</v>
+        <v>42200</v>
       </c>
       <c r="H54" s="3">
+        <v>43300</v>
+      </c>
+      <c r="I54" s="3">
         <v>35000</v>
       </c>
-      <c r="I54" s="3">
-        <v>33900</v>
-      </c>
       <c r="J54" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K54" s="3">
         <v>40900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>44800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3253,8 +3382,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,28 +3406,29 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3324,10 +3455,10 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -3335,8 +3466,11 @@
       <c r="U57" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3358,8 +3492,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3376,26 +3510,29 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>7700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3406,19 +3543,19 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3453,22 +3590,25 @@
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3477,13 +3617,13 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -3501,19 +3641,22 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3566,13 +3709,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3601,7 +3747,7 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -3616,10 +3762,10 @@
         <v>300</v>
       </c>
       <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>300</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
@@ -3630,8 +3776,11 @@
       <c r="U62" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3689,8 +3838,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,8 +3900,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3807,22 +3962,25 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -3831,13 +3989,13 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3849,25 +4007,28 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3889,8 +4050,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3948,8 +4110,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4007,8 +4172,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4066,8 +4234,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4125,67 +4296,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-39000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37600</v>
       </c>
-      <c r="F72" s="3">
-        <v>-36900</v>
-      </c>
       <c r="G72" s="3">
-        <v>-36100</v>
+        <v>-36800</v>
       </c>
       <c r="H72" s="3">
-        <v>-35600</v>
+        <v>-36000</v>
       </c>
       <c r="I72" s="3">
-        <v>-35200</v>
+        <v>-35500</v>
       </c>
       <c r="J72" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-34400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-47400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-46900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4420,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,8 +4482,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4361,67 +4544,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74900</v>
+        <v>71900</v>
       </c>
       <c r="E76" s="3">
-        <v>76500</v>
+        <v>74800</v>
       </c>
       <c r="F76" s="3">
-        <v>41700</v>
+        <v>76300</v>
       </c>
       <c r="G76" s="3">
-        <v>43100</v>
+        <v>41600</v>
       </c>
       <c r="H76" s="3">
-        <v>34600</v>
+        <v>43000</v>
       </c>
       <c r="I76" s="3">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="J76" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K76" s="3">
         <v>40800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>43700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4479,89 +4668,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42185</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42094</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
@@ -4570,40 +4765,43 @@
         <v>-700</v>
       </c>
       <c r="K81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-900</v>
       </c>
       <c r="U81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4625,8 +4823,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4684,8 +4883,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4743,8 +4945,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,8 +5007,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4861,8 +5069,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4920,8 +5131,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4979,67 +5193,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-700</v>
       </c>
       <c r="G89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>-500</v>
       </c>
       <c r="K89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5061,47 +5281,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5112,16 +5333,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5179,8 +5403,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5238,34 +5465,37 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-6200</v>
-      </c>
       <c r="F94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
@@ -5274,31 +5504,34 @@
         <v>-300</v>
       </c>
       <c r="N94" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5320,8 +5553,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5379,8 +5613,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5438,8 +5675,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5497,8 +5737,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5556,26 +5799,29 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>34600</v>
-      </c>
       <c r="F100" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5586,37 +5832,40 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5674,63 +5923,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
-        <v>27700</v>
-      </c>
       <c r="F102" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-700</v>
       </c>
       <c r="I102" s="3">
         <v>-700</v>
       </c>
       <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-700</v>
       </c>
       <c r="L102" s="3">
         <v>-700</v>
       </c>
       <c r="M102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
     </row>
